--- a/00-UAT/PROD-Release/MonthlyReport.xlsx
+++ b/00-UAT/PROD-Release/MonthlyReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bfl.local\dfsroot\US_Users\duque\My Documents\00-MyDocuments\00-UAT\PROD-Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83987FAC-9435-4B45-8F5F-F3939F56FFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF00000-4321-4422-AA7D-B66DE92E025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="15525" xr2:uid="{C3443D0F-084A-44E5-957D-6A8652275B75}"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="20790" windowHeight="12345" xr2:uid="{C3443D0F-084A-44E5-957D-6A8652275B75}"/>
   </bookViews>
   <sheets>
     <sheet name="November 2022" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Release Date</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Sprint 3 + Sprint 4 - Cancelled</t>
+  </si>
+  <si>
+    <t>BD-14619</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
   </si>
 </sst>
 </file>
@@ -539,7 +551,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,27 +606,61 @@
       <c r="A4" s="13">
         <v>44876</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="13">
+        <v>44888</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="13">
+        <v>44893</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -622,19 +668,19 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" ref="B7:D7" si="0">SUM(B3:B6)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -665,9 +711,15 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
